--- a/conditional_questions.xlsx
+++ b/conditional_questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Code/CDSS Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4968186-654B-4149-BE32-18B8DDE03AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF85856-C74D-074D-B203-AAF08672D2F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13260" yWindow="4340" windowWidth="14580" windowHeight="10060" xr2:uid="{41517818-E190-F340-A8FA-431B0781EA97}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>feature_key</t>
   </si>
@@ -80,6 +80,15 @@
   </si>
   <si>
     <t>Yes, bad general constitution;No, good general constitution</t>
+  </si>
+  <si>
+    <t>Yes, antigen detected;No, no antigen detection</t>
+  </si>
+  <si>
+    <t>Was there a positive antigen test (e.g. PCR positive in synovia)?</t>
+  </si>
+  <si>
+    <t>antigen_detection</t>
   </si>
 </sst>
 </file>
@@ -124,9 +133,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -441,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA2140A-E4EB-1640-AAD2-BA597BEE1619}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -499,7 +510,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
@@ -507,6 +518,17 @@
       </c>
       <c r="C5" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/conditional_questions.xlsx
+++ b/conditional_questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Code/CDSS Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF85856-C74D-074D-B203-AAF08672D2F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6215D1-BB31-1F4B-AC0D-DE8DDC829141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13260" yWindow="4340" windowWidth="14580" windowHeight="10060" xr2:uid="{41517818-E190-F340-A8FA-431B0781EA97}"/>
+    <workbookView xWindow="8420" yWindow="3480" windowWidth="17760" windowHeight="11480" xr2:uid="{41517818-E190-F340-A8FA-431B0781EA97}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>feature_key</t>
   </si>
@@ -52,9 +52,6 @@
     <t>Is your patient a foal &lt; 1 month of age?</t>
   </si>
   <si>
-    <t>Yes, Foal &lt; 1 Month;No, older than 1 Month</t>
-  </si>
-  <si>
     <t>pet_status</t>
   </si>
   <si>
@@ -67,9 +64,6 @@
     <t>abscess</t>
   </si>
   <si>
-    <t>Yes, Abscess;No, No Abscess</t>
-  </si>
-  <si>
     <t>Pet;Farm Animal</t>
   </si>
   <si>
@@ -79,16 +73,13 @@
     <t>Is your patient in a bad general constitution?</t>
   </si>
   <si>
-    <t>Yes, bad general constitution;No, good general constitution</t>
-  </si>
-  <si>
-    <t>Yes, antigen detected;No, no antigen detection</t>
-  </si>
-  <si>
     <t>Was there a positive antigen test (e.g. PCR positive in synovia)?</t>
   </si>
   <si>
     <t>antigen_detection</t>
+  </si>
+  <si>
+    <t>binary</t>
   </si>
 </sst>
 </file>
@@ -133,11 +124,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -455,14 +444,14 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="37.1640625" customWidth="1"/>
-    <col min="3" max="3" width="42.5" customWidth="1"/>
+    <col min="3" max="3" width="51.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -484,51 +473,51 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
+      <c r="A5" t="s">
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>17</v>
+      <c r="A6" t="s">
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
